--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/App-Tnfrsf21.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/App-Tnfrsf21.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>104.794801</v>
+        <v>72.266001</v>
       </c>
       <c r="H2">
-        <v>314.384403</v>
+        <v>216.798003</v>
       </c>
       <c r="I2">
-        <v>0.3872421191355361</v>
+        <v>0.2949652269937106</v>
       </c>
       <c r="J2">
-        <v>0.3872421191355361</v>
+        <v>0.2949652269937106</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>23.62326166666667</v>
+        <v>17.46627766666667</v>
       </c>
       <c r="N2">
-        <v>70.86978500000001</v>
+        <v>52.398833</v>
       </c>
       <c r="O2">
-        <v>0.5054607868187524</v>
+        <v>0.2609791297364465</v>
       </c>
       <c r="P2">
-        <v>0.5054607868187523</v>
+        <v>0.2609791297364465</v>
       </c>
       <c r="Q2">
-        <v>2475.595005329262</v>
+        <v>1262.218039325611</v>
       </c>
       <c r="R2">
-        <v>22280.35504796336</v>
+        <v>11359.9623539305</v>
       </c>
       <c r="S2">
-        <v>0.1957357062276091</v>
+        <v>0.07697976824333198</v>
       </c>
       <c r="T2">
-        <v>0.1957357062276091</v>
+        <v>0.07697976824333198</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>104.794801</v>
+        <v>72.266001</v>
       </c>
       <c r="H3">
-        <v>314.384403</v>
+        <v>216.798003</v>
       </c>
       <c r="I3">
-        <v>0.3872421191355361</v>
+        <v>0.2949652269937106</v>
       </c>
       <c r="J3">
-        <v>0.3872421191355361</v>
+        <v>0.2949652269937106</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>7.465517</v>
       </c>
       <c r="O3">
-        <v>0.05324590863128442</v>
+        <v>0.03718296798122674</v>
       </c>
       <c r="P3">
-        <v>0.05324590863128442</v>
+        <v>0.03718296798122674</v>
       </c>
       <c r="Q3">
-        <v>260.7824561257057</v>
+        <v>179.834352995839</v>
       </c>
       <c r="R3">
-        <v>2347.042105131351</v>
+        <v>1618.509176962551</v>
       </c>
       <c r="S3">
-        <v>0.02061905849367571</v>
+        <v>0.01096768259088242</v>
       </c>
       <c r="T3">
-        <v>0.02061905849367571</v>
+        <v>0.01096768259088242</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>104.794801</v>
+        <v>72.266001</v>
       </c>
       <c r="H4">
-        <v>314.384403</v>
+        <v>216.798003</v>
       </c>
       <c r="I4">
-        <v>0.3872421191355361</v>
+        <v>0.2949652269937106</v>
       </c>
       <c r="J4">
-        <v>0.3872421191355361</v>
+        <v>0.2949652269937106</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>20.62432433333333</v>
+        <v>46.97117233333334</v>
       </c>
       <c r="N4">
-        <v>61.87297299999999</v>
+        <v>140.913517</v>
       </c>
       <c r="O4">
-        <v>0.4412933045499632</v>
+        <v>0.7018379022823268</v>
       </c>
       <c r="P4">
-        <v>0.4412933045499632</v>
+        <v>0.7018379022823268</v>
       </c>
       <c r="Q4">
-        <v>2161.321964271124</v>
+        <v>3394.418786811839</v>
       </c>
       <c r="R4">
-        <v>19451.89767844012</v>
+        <v>30549.76908130655</v>
       </c>
       <c r="S4">
-        <v>0.1708873544142513</v>
+        <v>0.2070177761594962</v>
       </c>
       <c r="T4">
-        <v>0.1708873544142512</v>
+        <v>0.2070177761594962</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,13 +723,13 @@
         <v>136.674446</v>
       </c>
       <c r="H5">
-        <v>410.0233380000001</v>
+        <v>410.023338</v>
       </c>
       <c r="I5">
-        <v>0.5050451128841345</v>
+        <v>0.5578585839920717</v>
       </c>
       <c r="J5">
-        <v>0.5050451128841343</v>
+        <v>0.5578585839920718</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>23.62326166666667</v>
+        <v>17.46627766666667</v>
       </c>
       <c r="N5">
-        <v>70.86978500000001</v>
+        <v>52.398833</v>
       </c>
       <c r="O5">
-        <v>0.5054607868187524</v>
+        <v>0.2609791297364465</v>
       </c>
       <c r="P5">
-        <v>0.5054607868187523</v>
+        <v>0.2609791297364465</v>
       </c>
       <c r="Q5">
-        <v>3228.696201004704</v>
+        <v>2387.193823773839</v>
       </c>
       <c r="R5">
-        <v>29058.26580904234</v>
+        <v>21484.74441396455</v>
       </c>
       <c r="S5">
-        <v>0.2552805001373802</v>
+        <v>0.1455894477662572</v>
       </c>
       <c r="T5">
-        <v>0.2552805001373801</v>
+        <v>0.1455894477662572</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,13 +785,13 @@
         <v>136.674446</v>
       </c>
       <c r="H6">
-        <v>410.0233380000001</v>
+        <v>410.023338</v>
       </c>
       <c r="I6">
-        <v>0.5050451128841345</v>
+        <v>0.5578585839920717</v>
       </c>
       <c r="J6">
-        <v>0.5050451128841343</v>
+        <v>0.5578585839920718</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>7.465517</v>
       </c>
       <c r="O6">
-        <v>0.05324590863128442</v>
+        <v>0.03718296798122674</v>
       </c>
       <c r="P6">
-        <v>0.05324590863128442</v>
+        <v>0.03718296798122674</v>
       </c>
       <c r="Q6">
-        <v>340.1151333595274</v>
+        <v>340.1151333595273</v>
       </c>
       <c r="R6">
         <v>3061.036200235746</v>
       </c>
       <c r="S6">
-        <v>0.02689158593530535</v>
+        <v>0.02074283786662969</v>
       </c>
       <c r="T6">
-        <v>0.02689158593530534</v>
+        <v>0.02074283786662969</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,13 +847,13 @@
         <v>136.674446</v>
       </c>
       <c r="H7">
-        <v>410.0233380000001</v>
+        <v>410.023338</v>
       </c>
       <c r="I7">
-        <v>0.5050451128841345</v>
+        <v>0.5578585839920717</v>
       </c>
       <c r="J7">
-        <v>0.5050451128841343</v>
+        <v>0.5578585839920718</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>20.62432433333333</v>
+        <v>46.97117233333334</v>
       </c>
       <c r="N7">
-        <v>61.87297299999999</v>
+        <v>140.913517</v>
       </c>
       <c r="O7">
-        <v>0.4412933045499632</v>
+        <v>0.7018379022823268</v>
       </c>
       <c r="P7">
-        <v>0.4412933045499632</v>
+        <v>0.7018379022823268</v>
       </c>
       <c r="Q7">
-        <v>2818.818102382653</v>
+        <v>6419.758956628861</v>
       </c>
       <c r="R7">
-        <v>25369.36292144388</v>
+        <v>57777.83060965974</v>
       </c>
       <c r="S7">
-        <v>0.2228730268114489</v>
+        <v>0.3915262983591848</v>
       </c>
       <c r="T7">
-        <v>0.2228730268114488</v>
+        <v>0.3915262983591848</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>29.14904533333333</v>
+        <v>36.057927</v>
       </c>
       <c r="H8">
-        <v>87.447136</v>
+        <v>108.173781</v>
       </c>
       <c r="I8">
-        <v>0.1077127679803296</v>
+        <v>0.1471761890142177</v>
       </c>
       <c r="J8">
-        <v>0.1077127679803296</v>
+        <v>0.1471761890142177</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>23.62326166666667</v>
+        <v>17.46627766666667</v>
       </c>
       <c r="N8">
-        <v>70.86978500000001</v>
+        <v>52.398833</v>
       </c>
       <c r="O8">
-        <v>0.5054607868187524</v>
+        <v>0.2609791297364465</v>
       </c>
       <c r="P8">
-        <v>0.5054607868187523</v>
+        <v>0.2609791297364465</v>
       </c>
       <c r="Q8">
-        <v>688.5955252428622</v>
+        <v>629.797765066397</v>
       </c>
       <c r="R8">
-        <v>6197.359727185761</v>
+        <v>5668.179885597573</v>
       </c>
       <c r="S8">
-        <v>0.0544445804537631</v>
+        <v>0.03840991372685729</v>
       </c>
       <c r="T8">
-        <v>0.05444458045376308</v>
+        <v>0.03840991372685729</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>29.14904533333333</v>
+        <v>36.057927</v>
       </c>
       <c r="H9">
-        <v>87.447136</v>
+        <v>108.173781</v>
       </c>
       <c r="I9">
-        <v>0.1077127679803296</v>
+        <v>0.1471761890142177</v>
       </c>
       <c r="J9">
-        <v>0.1077127679803296</v>
+        <v>0.1471761890142177</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>7.465517</v>
       </c>
       <c r="O9">
-        <v>0.05324590863128442</v>
+        <v>0.03718296798122674</v>
       </c>
       <c r="P9">
-        <v>0.05324590863128442</v>
+        <v>0.03718296798122674</v>
       </c>
       <c r="Q9">
-        <v>72.53756448992355</v>
+        <v>89.730355667753</v>
       </c>
       <c r="R9">
-        <v>652.8380804093121</v>
+        <v>807.573201009777</v>
       </c>
       <c r="S9">
-        <v>0.005735264202303366</v>
+        <v>0.005472447523714631</v>
       </c>
       <c r="T9">
-        <v>0.005735264202303365</v>
+        <v>0.005472447523714631</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>29.14904533333333</v>
+        <v>36.057927</v>
       </c>
       <c r="H10">
-        <v>87.447136</v>
+        <v>108.173781</v>
       </c>
       <c r="I10">
-        <v>0.1077127679803296</v>
+        <v>0.1471761890142177</v>
       </c>
       <c r="J10">
-        <v>0.1077127679803296</v>
+        <v>0.1471761890142177</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>20.62432433333333</v>
+        <v>46.97117233333334</v>
       </c>
       <c r="N10">
-        <v>61.87297299999999</v>
+        <v>140.913517</v>
       </c>
       <c r="O10">
-        <v>0.4412933045499632</v>
+        <v>0.7018379022823268</v>
       </c>
       <c r="P10">
-        <v>0.4412933045499632</v>
+        <v>0.7018379022823268</v>
       </c>
       <c r="Q10">
-        <v>601.1793649617031</v>
+        <v>1693.683103099753</v>
       </c>
       <c r="R10">
-        <v>5410.614284655328</v>
+        <v>15243.14792789778</v>
       </c>
       <c r="S10">
-        <v>0.0475329233242631</v>
+        <v>0.1032938277636458</v>
       </c>
       <c r="T10">
-        <v>0.04753292332426309</v>
+        <v>0.1032938277636458</v>
       </c>
     </row>
   </sheetData>
